--- a/PLATFORMS/GOOGLE/1-Foundations-Data-Data-Everywhere/week-4/Learning-logs/Data-chart-template.xlsx
+++ b/PLATFORMS/GOOGLE/1-Foundations-Data-Data-Everywhere/week-4/Learning-logs/Data-chart-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data-Science\PLATFORMS\GOOGLE\1-Foundations-Data-Data-Everywhere\week-4\Learning-logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\data-sciecne\PLATFORMS\GOOGLE\1-Foundations-Data-Data-Everywhere\week-4\Learning-logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A36BEEB-8F51-4991-A7AB-76D17A2CE3EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6278A8-D2BB-47EF-8494-81E923D499E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cups of Tea per day</a:t>
+              <a:t>Cups of Tea per Day</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3164,7 +3164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
